--- a/data/zafina-tekken-8-frame-data.xlsx
+++ b/data/zafina-tekken-8-frame-data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,15 +492,11 @@
       <c r="D2" t="n">
         <v>10</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -522,15 +518,11 @@
       <c r="D3" t="n">
         <v>16</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -556,15 +548,11 @@
       <c r="D4" t="n">
         <v>12</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -586,15 +574,11 @@
       <c r="D5" t="n">
         <v>20</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
@@ -640,15 +624,11 @@
       <c r="D7" t="n">
         <v>24</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -674,15 +654,11 @@
       <c r="D8" t="n">
         <v>30</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>+19d</t>
-        </is>
+      <c r="E8" t="n">
+        <v>11</v>
+      </c>
+      <c r="F8" t="n">
+        <v>19</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
@@ -709,10 +685,8 @@
         <v>12</v>
       </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F9" t="n">
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
@@ -738,15 +712,11 @@
       <c r="D10" t="n">
         <v>17</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
@@ -768,15 +738,11 @@
       <c r="D11" t="n">
         <v>19</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -798,15 +764,11 @@
       <c r="D12" t="n">
         <v>10</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="E12" t="n">
+        <v>7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-1</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
@@ -828,15 +790,11 @@
       <c r="D13" t="n">
         <v>23</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E13" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
@@ -858,15 +816,11 @@
       <c r="D14" t="n">
         <v>32</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>+4d</t>
-        </is>
+      <c r="E14" t="n">
+        <v>17</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
@@ -892,15 +846,11 @@
       <c r="D15" t="n">
         <v>19</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E15" t="n">
+        <v>9</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -926,15 +876,11 @@
       <c r="D16" t="n">
         <v>25</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>+19d(-16)</t>
-        </is>
+      <c r="E16" t="n">
+        <v>9</v>
+      </c>
+      <c r="F16" t="n">
+        <v>19</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
@@ -954,15 +900,11 @@
         <v>0</v>
       </c>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>+2c</t>
-        </is>
+      <c r="E17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
@@ -989,10 +931,8 @@
         <v>12</v>
       </c>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F18" t="n">
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
@@ -1018,15 +958,11 @@
       <c r="D19" t="n">
         <v>13</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>9</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
@@ -1068,15 +1004,11 @@
       <c r="D21" t="n">
         <v>14</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="E21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1102,15 +1034,11 @@
       <c r="D22" t="n">
         <v>18</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E22" t="n">
+        <v>14</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
@@ -1131,10 +1059,8 @@
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
+      <c r="F23" t="n">
+        <v>70</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
@@ -1160,15 +1086,11 @@
       <c r="D24" t="n">
         <v>22</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>+12</t>
-        </is>
+      <c r="E24" t="n">
+        <v>5</v>
+      </c>
+      <c r="F24" t="n">
+        <v>12</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
@@ -1195,10 +1117,8 @@
         <v>64</v>
       </c>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>+41a(+10)</t>
-        </is>
+      <c r="F25" t="n">
+        <v>41</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
@@ -1220,15 +1140,11 @@
       <c r="D26" t="n">
         <v>24</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>+12d</t>
-        </is>
+      <c r="E26" t="n">
+        <v>14</v>
+      </c>
+      <c r="F26" t="n">
+        <v>12</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
@@ -1250,15 +1166,11 @@
       <c r="D27" t="n">
         <v>22</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E27" t="n">
+        <v>9</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
@@ -1280,15 +1192,11 @@
       <c r="D28" t="n">
         <v>20</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>+9a(0)</t>
-        </is>
+      <c r="E28" t="n">
+        <v>14</v>
+      </c>
+      <c r="F28" t="n">
+        <v>9</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
@@ -1313,10 +1221,8 @@
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F29" t="n">
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
@@ -1342,15 +1248,11 @@
       <c r="D30" t="n">
         <v>12</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
+      <c r="E30" t="n">
+        <v>16</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-8</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1376,15 +1278,11 @@
       <c r="D31" t="n">
         <v>17</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>+19a(+12)</t>
-        </is>
+      <c r="E31" t="n">
+        <v>12</v>
+      </c>
+      <c r="F31" t="n">
+        <v>19</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1430,15 +1328,11 @@
       <c r="D33" t="n">
         <v>19</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>-16c</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>-3c</t>
-        </is>
+      <c r="E33" t="n">
+        <v>16</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-3</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1464,15 +1358,11 @@
       <c r="D34" t="n">
         <v>26</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>-22</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>-4b</t>
-        </is>
+      <c r="E34" t="n">
+        <v>22</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-4</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1502,15 +1392,11 @@
       <c r="D35" t="n">
         <v>28</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>+18a</t>
-        </is>
+      <c r="E35" t="n">
+        <v>12</v>
+      </c>
+      <c r="F35" t="n">
+        <v>18</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
@@ -1532,15 +1418,11 @@
       <c r="D36" t="n">
         <v>22</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E36" t="n">
+        <v>15</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1586,15 +1468,11 @@
       <c r="D38" t="n">
         <v>17</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>-19</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="E38" t="n">
+        <v>19</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-3</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1620,15 +1498,11 @@
       <c r="D39" t="n">
         <v>19</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>+36a(+26)</t>
-        </is>
+      <c r="E39" t="n">
+        <v>6</v>
+      </c>
+      <c r="F39" t="n">
+        <v>36</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
@@ -1654,15 +1528,11 @@
       <c r="D40" t="n">
         <v>28</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>+15a</t>
-        </is>
+      <c r="E40" t="n">
+        <v>16</v>
+      </c>
+      <c r="F40" t="n">
+        <v>15</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
@@ -1684,15 +1554,11 @@
       <c r="D41" t="n">
         <v>33</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>+5a(-4)</t>
-        </is>
+      <c r="E41" t="n">
+        <v>16</v>
+      </c>
+      <c r="F41" t="n">
+        <v>5</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1722,15 +1588,11 @@
       <c r="D42" t="n">
         <v>13</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E42" t="n">
+        <v>9</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1756,15 +1618,11 @@
       <c r="D43" t="n">
         <v>18</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E43" t="n">
+        <v>8</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
@@ -1786,15 +1644,11 @@
       <c r="D44" t="n">
         <v>21</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="E44" t="n">
+        <v>12</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-3</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1824,15 +1678,11 @@
       <c r="D45" t="n">
         <v>29</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>+68a(+52)</t>
-        </is>
+      <c r="E45" t="n">
+        <v>13</v>
+      </c>
+      <c r="F45" t="n">
+        <v>68</v>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
@@ -1858,15 +1708,11 @@
       <c r="D46" t="n">
         <v>13</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E46" t="n">
+        <v>5</v>
+      </c>
+      <c r="F46" t="n">
+        <v>7</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
@@ -1888,15 +1734,11 @@
       <c r="D47" t="n">
         <v>15</v>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E47" t="n">
+        <v>13</v>
+      </c>
+      <c r="F47" t="n">
+        <v>3</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
@@ -1918,15 +1760,11 @@
       <c r="D48" t="n">
         <v>25</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>+23d(13)</t>
-        </is>
+      <c r="E48" t="n">
+        <v>13</v>
+      </c>
+      <c r="F48" t="n">
+        <v>23</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
@@ -1952,15 +1790,11 @@
       <c r="D49" t="n">
         <v>19</v>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>+12</t>
-        </is>
+      <c r="E49" t="n">
+        <v>6</v>
+      </c>
+      <c r="F49" t="n">
+        <v>12</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
@@ -1982,15 +1816,11 @@
       <c r="D50" t="n">
         <v>16</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>+32a(22)</t>
-        </is>
+      <c r="E50" t="n">
+        <v>12</v>
+      </c>
+      <c r="F50" t="n">
+        <v>32</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
@@ -2012,15 +1842,11 @@
       <c r="D51" t="n">
         <v>15</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E51" t="n">
+        <v>5</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
@@ -2042,15 +1868,11 @@
       <c r="D52" t="n">
         <v>23</v>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>+22d</t>
-        </is>
+      <c r="E52" t="n">
+        <v>6</v>
+      </c>
+      <c r="F52" t="n">
+        <v>22</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2076,15 +1898,11 @@
       <c r="D53" t="n">
         <v>25</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E53" t="n">
+        <v>14</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
@@ -2106,15 +1924,11 @@
       <c r="D54" t="n">
         <v>14</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E54" t="n">
+        <v>13</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
@@ -2136,15 +1950,11 @@
       <c r="D55" t="n">
         <v>31</v>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>+3d</t>
-        </is>
+      <c r="E55" t="n">
+        <v>12</v>
+      </c>
+      <c r="F55" t="n">
+        <v>3</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
@@ -2170,15 +1980,11 @@
       <c r="D56" t="n">
         <v>27</v>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>+24a(+9)</t>
-        </is>
+      <c r="E56" t="n">
+        <v>13</v>
+      </c>
+      <c r="F56" t="n">
+        <v>24</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
@@ -2204,15 +2010,11 @@
       <c r="D57" t="n">
         <v>19</v>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>+5d(-5)</t>
-        </is>
+      <c r="E57" t="n">
+        <v>9</v>
+      </c>
+      <c r="F57" t="n">
+        <v>5</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
@@ -2238,15 +2040,11 @@
       <c r="D58" t="n">
         <v>19</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
+      <c r="E58" t="n">
+        <v>18</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-9</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2272,15 +2070,11 @@
       <c r="D59" t="n">
         <v>19</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>9</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
@@ -2306,15 +2100,11 @@
       <c r="D60" t="n">
         <v>28</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>+18d(8)</t>
-        </is>
+      <c r="E60" t="n">
+        <v>18</v>
+      </c>
+      <c r="F60" t="n">
+        <v>18</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
@@ -2336,15 +2126,11 @@
       <c r="D61" t="n">
         <v>21</v>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>+68a(48)</t>
-        </is>
+      <c r="E61" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F61" t="n">
+        <v>68</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
@@ -2370,15 +2156,11 @@
       <c r="D62" t="n">
         <v>14</v>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>+22d</t>
-        </is>
+      <c r="E62" t="n">
+        <v>6</v>
+      </c>
+      <c r="F62" t="n">
+        <v>22</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
@@ -2400,15 +2182,11 @@
       <c r="D63" t="n">
         <v>10</v>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E63" t="n">
+        <v>5</v>
+      </c>
+      <c r="F63" t="n">
+        <v>6</v>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
@@ -2430,15 +2208,11 @@
       <c r="D64" t="n">
         <v>11</v>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E64" t="n">
+        <v>4</v>
+      </c>
+      <c r="F64" t="n">
+        <v>5</v>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
@@ -2460,15 +2234,11 @@
       <c r="D65" t="n">
         <v>16</v>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
+      <c r="E65" t="n">
+        <v>17</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-6</v>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
@@ -2490,15 +2260,11 @@
       <c r="D66" t="n">
         <v>12</v>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
+      <c r="E66" t="n">
+        <v>15</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-4</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
@@ -2520,15 +2286,11 @@
       <c r="D67" t="n">
         <v>23</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>-26</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>+14d</t>
-        </is>
+      <c r="E67" t="n">
+        <v>26</v>
+      </c>
+      <c r="F67" t="n">
+        <v>14</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
@@ -2554,15 +2316,11 @@
       <c r="D68" t="n">
         <v>15</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>+21a(12)</t>
-        </is>
+      <c r="E68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F68" t="n">
+        <v>21</v>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
@@ -2588,15 +2346,11 @@
       <c r="D69" t="n">
         <v>20</v>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
+      <c r="E69" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F69" t="n">
+        <v>9</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2626,15 +2380,11 @@
       <c r="D70" t="n">
         <v>18</v>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>+5d</t>
-        </is>
+      <c r="E70" t="n">
+        <v>16</v>
+      </c>
+      <c r="F70" t="n">
+        <v>5</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
@@ -2660,15 +2410,11 @@
       <c r="D71" t="n">
         <v>21</v>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>+15a(+6)</t>
-        </is>
+      <c r="E71" t="n">
+        <v>11</v>
+      </c>
+      <c r="F71" t="n">
+        <v>15</v>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
@@ -2694,15 +2440,11 @@
       <c r="D72" t="n">
         <v>17</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>+18a(+9)</t>
-        </is>
+      <c r="E72" t="n">
+        <v>8</v>
+      </c>
+      <c r="F72" t="n">
+        <v>18</v>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
@@ -2728,15 +2470,11 @@
       <c r="D73" t="n">
         <v>23</v>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>+32a</t>
-        </is>
+      <c r="E73" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F73" t="n">
+        <v>32</v>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
@@ -2762,15 +2500,11 @@
       <c r="D74" t="n">
         <v>23</v>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>+19a(9)</t>
-        </is>
+      <c r="E74" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F74" t="n">
+        <v>19</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
@@ -2796,15 +2530,11 @@
       <c r="D75" t="n">
         <v>12</v>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>knd</t>
-        </is>
+      <c r="E75" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F75" t="n">
+        <v>70</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
@@ -2829,10 +2559,8 @@
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F76" t="n">
+        <v>0</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
@@ -2858,15 +2586,11 @@
       <c r="D77" t="n">
         <v>13</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E77" t="n">
+        <v>6</v>
+      </c>
+      <c r="F77" t="n">
+        <v>5</v>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
@@ -2888,15 +2612,11 @@
       <c r="D78" t="n">
         <v>20</v>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>+18d</t>
-        </is>
+      <c r="E78" t="n">
+        <v>12</v>
+      </c>
+      <c r="F78" t="n">
+        <v>18</v>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
@@ -2918,15 +2638,11 @@
       <c r="D79" t="n">
         <v>19</v>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>9</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
@@ -2952,15 +2668,11 @@
       <c r="D80" t="n">
         <v>13</v>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="E80" t="n">
+        <v>14</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-3</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2986,15 +2698,11 @@
       <c r="D81" t="n">
         <v>18</v>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="E81" t="n">
+        <v>14</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-3</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
@@ -3016,15 +2724,11 @@
       <c r="D82" t="n">
         <v>27</v>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>+13a(+4)</t>
-        </is>
+      <c r="E82" t="n">
+        <v>13</v>
+      </c>
+      <c r="F82" t="n">
+        <v>13</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
@@ -3062,15 +2766,11 @@
       <c r="D84" t="n">
         <v>15</v>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="E84" t="n">
+        <v>12</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-1</v>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
@@ -3092,15 +2792,11 @@
       <c r="D85" t="n">
         <v>24</v>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>+22a(+15)</t>
-        </is>
+      <c r="E85" t="n">
+        <v>9</v>
+      </c>
+      <c r="F85" t="n">
+        <v>22</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
@@ -3122,15 +2818,11 @@
       <c r="D86" t="n">
         <v>17</v>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>-19</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="E86" t="n">
+        <v>19</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-3</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3156,15 +2848,11 @@
       <c r="D87" t="n">
         <v>27</v>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>-30</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>+32a(+22)</t>
-        </is>
+      <c r="E87" t="n">
+        <v>30</v>
+      </c>
+      <c r="F87" t="n">
+        <v>32</v>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
@@ -3190,15 +2878,11 @@
       <c r="D88" t="n">
         <v>15</v>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E88" t="n">
+        <v>11</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
@@ -3220,15 +2904,11 @@
       <c r="D89" t="n">
         <v>27</v>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>-16</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>+15(+6)</t>
-        </is>
+      <c r="E89" t="n">
+        <v>16</v>
+      </c>
+      <c r="F89" t="n">
+        <v>15</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3258,15 +2938,11 @@
       <c r="D90" t="n">
         <v>20</v>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>-22~-15</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>+4c~+11c</t>
-        </is>
+      <c r="E90" t="n">
+        <v>22</v>
+      </c>
+      <c r="F90" t="n">
+        <v>4</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3296,15 +2972,11 @@
       <c r="D91" t="n">
         <v>24</v>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>+7d</t>
-        </is>
+      <c r="E91" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F91" t="n">
+        <v>7</v>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
@@ -3330,15 +3002,11 @@
       <c r="D92" t="n">
         <v>19</v>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>+32a(22)</t>
-        </is>
+      <c r="E92" t="n">
+        <v>9</v>
+      </c>
+      <c r="F92" t="n">
+        <v>32</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
@@ -3360,15 +3028,11 @@
       <c r="D93" t="n">
         <v>15</v>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>+19b</t>
-        </is>
+      <c r="E93" t="n">
+        <v>17</v>
+      </c>
+      <c r="F93" t="n">
+        <v>19</v>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
@@ -3390,15 +3054,11 @@
       <c r="D94" t="n">
         <v>17</v>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>+13b</t>
-        </is>
+      <c r="E94" t="n">
+        <v>5</v>
+      </c>
+      <c r="F94" t="n">
+        <v>13</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
@@ -3424,15 +3084,11 @@
       <c r="D95" t="n">
         <v>26</v>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>+11d</t>
-        </is>
+      <c r="E95" t="n">
+        <v>9</v>
+      </c>
+      <c r="F95" t="n">
+        <v>11</v>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
@@ -3454,15 +3110,11 @@
       <c r="D96" t="n">
         <v>20</v>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>+15</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
+      <c r="E96" t="n">
+        <v>-15</v>
+      </c>
+      <c r="F96" t="n">
+        <v>70</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
@@ -3487,10 +3139,8 @@
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="F97" t="n">
+        <v>7</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
@@ -3516,15 +3166,11 @@
       <c r="D98" t="n">
         <v>10</v>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
+      <c r="E98" t="n">
+        <v>2</v>
+      </c>
+      <c r="F98" t="n">
+        <v>9</v>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
@@ -3546,15 +3192,11 @@
       <c r="D99" t="n">
         <v>17</v>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>+17d</t>
-        </is>
+      <c r="E99" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F99" t="n">
+        <v>17</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
@@ -3580,15 +3222,11 @@
       <c r="D100" t="n">
         <v>22</v>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
+      <c r="E100" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-6</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -3614,15 +3252,11 @@
       <c r="D101" t="n">
         <v>14</v>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E101" t="n">
+        <v>7</v>
+      </c>
+      <c r="F101" t="n">
+        <v>7</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
@@ -3644,15 +3278,11 @@
       <c r="D102" t="n">
         <v>21</v>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>+30d(+20)</t>
-        </is>
+      <c r="E102" t="n">
+        <v>6</v>
+      </c>
+      <c r="F102" t="n">
+        <v>30</v>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
@@ -3678,15 +3308,11 @@
       <c r="D103" t="n">
         <v>22</v>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>+8c</t>
-        </is>
+      <c r="E103" t="n">
+        <v>10</v>
+      </c>
+      <c r="F103" t="n">
+        <v>8</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -3712,15 +3338,11 @@
       <c r="D104" t="n">
         <v>13</v>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E104" t="n">
+        <v>6</v>
+      </c>
+      <c r="F104" t="n">
+        <v>5</v>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
@@ -3742,15 +3364,11 @@
       <c r="D105" t="n">
         <v>16</v>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>+25a(+15)</t>
-        </is>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>25</v>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
@@ -3776,15 +3394,11 @@
       <c r="D106" t="n">
         <v>18</v>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E106" t="n">
+        <v>12</v>
+      </c>
+      <c r="F106" t="n">
+        <v>8</v>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
@@ -3810,15 +3424,11 @@
       <c r="D107" t="n">
         <v>15</v>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>+58a(+42)</t>
-        </is>
+      <c r="E107" t="n">
+        <v>18</v>
+      </c>
+      <c r="F107" t="n">
+        <v>58</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
@@ -3844,15 +3454,11 @@
       <c r="D108" t="n">
         <v>16</v>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
+      <c r="E108" t="n">
+        <v>17</v>
+      </c>
+      <c r="F108" t="n">
+        <v>3</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -3882,15 +3488,11 @@
       <c r="D109" t="n">
         <v>18</v>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="E109" t="n">
+        <v>6</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-3</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -3916,15 +3518,11 @@
       <c r="D110" t="n">
         <v>24</v>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>+77a(+61)</t>
-        </is>
+      <c r="E110" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F110" t="n">
+        <v>77</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
@@ -3966,15 +3564,11 @@
       <c r="D112" t="n">
         <v>24</v>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>-4d</t>
-        </is>
+      <c r="E112" t="n">
+        <v>25</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-4</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
@@ -4018,15 +3612,11 @@
       <c r="D114" t="n">
         <v>28</v>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>-23</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>-10c</t>
-        </is>
+      <c r="E114" t="n">
+        <v>23</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-10</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
@@ -4052,15 +3642,11 @@
       <c r="D115" t="n">
         <v>29</v>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>-23</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>+54a(+38)</t>
-        </is>
+      <c r="E115" t="n">
+        <v>23</v>
+      </c>
+      <c r="F115" t="n">
+        <v>54</v>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
@@ -4086,15 +3672,11 @@
       <c r="D116" t="n">
         <v>19</v>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>+7c</t>
-        </is>
+      <c r="E116" t="n">
+        <v>14</v>
+      </c>
+      <c r="F116" t="n">
+        <v>7</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -4120,15 +3702,11 @@
       <c r="D117" t="n">
         <v>17</v>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>-2c</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>+8c</t>
-        </is>
+      <c r="E117" t="n">
+        <v>2</v>
+      </c>
+      <c r="F117" t="n">
+        <v>8</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -4154,15 +3732,11 @@
       <c r="D118" t="n">
         <v>18</v>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E118" t="n">
+        <v>11</v>
+      </c>
+      <c r="F118" t="n">
+        <v>5</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -4188,15 +3762,11 @@
       <c r="D119" t="n">
         <v>19</v>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>+14a</t>
-        </is>
+      <c r="E119" t="n">
+        <v>12</v>
+      </c>
+      <c r="F119" t="n">
+        <v>14</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
@@ -4222,15 +3792,11 @@
       <c r="D120" t="n">
         <v>34</v>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>+40a(+30)</t>
-        </is>
+      <c r="E120" t="n">
+        <v>9</v>
+      </c>
+      <c r="F120" t="n">
+        <v>40</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
@@ -4256,15 +3822,11 @@
       <c r="D121" t="n">
         <v>14</v>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>+15d</t>
-        </is>
+      <c r="E121" t="n">
+        <v>17</v>
+      </c>
+      <c r="F121" t="n">
+        <v>15</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
@@ -4286,15 +3848,11 @@
       <c r="D122" t="n">
         <v>26</v>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>-22</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>-4b</t>
-        </is>
+      <c r="E122" t="n">
+        <v>22</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-4</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -4324,15 +3882,11 @@
       <c r="D123" t="n">
         <v>28</v>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>+18a</t>
-        </is>
+      <c r="E123" t="n">
+        <v>12</v>
+      </c>
+      <c r="F123" t="n">
+        <v>18</v>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
@@ -4354,15 +3908,11 @@
       <c r="D124" t="n">
         <v>25</v>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>-21</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>+10d</t>
-        </is>
+      <c r="E124" t="n">
+        <v>21</v>
+      </c>
+      <c r="F124" t="n">
+        <v>10</v>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
@@ -4400,15 +3950,11 @@
       <c r="D126" t="n">
         <v>19</v>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>+30a(+15)</t>
-        </is>
+      <c r="E126" t="n">
+        <v>7</v>
+      </c>
+      <c r="F126" t="n">
+        <v>30</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr">
@@ -4434,15 +3980,11 @@
       <c r="D127" t="n">
         <v>19</v>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
+      <c r="E127" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F127" t="n">
+        <v>9</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
@@ -4469,10 +4011,8 @@
         <v>12</v>
       </c>
       <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F128" t="n">
+        <v>0</v>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
@@ -4498,15 +4038,11 @@
       <c r="D129" t="n">
         <v>22</v>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>+17d</t>
-        </is>
+      <c r="E129" t="n">
+        <v>8</v>
+      </c>
+      <c r="F129" t="n">
+        <v>17</v>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
@@ -4532,15 +4068,11 @@
       <c r="D130" t="n">
         <v>17</v>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>+29a(19)</t>
-        </is>
+      <c r="E130" t="n">
+        <v>13</v>
+      </c>
+      <c r="F130" t="n">
+        <v>29</v>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr">
@@ -4566,16 +4098,10 @@
       <c r="D131" t="n">
         <v>14</v>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>-52</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>+?</t>
-        </is>
-      </c>
+      <c r="E131" t="n">
+        <v>52</v>
+      </c>
+      <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr">
         <is>
@@ -4600,15 +4126,11 @@
       <c r="D132" t="n">
         <v>15</v>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
+      <c r="E132" t="n">
+        <v>10</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1</v>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
@@ -4630,15 +4152,11 @@
       <c r="D133" t="n">
         <v>20</v>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>+36a(26)</t>
-        </is>
+      <c r="E133" t="n">
+        <v>13</v>
+      </c>
+      <c r="F133" t="n">
+        <v>36</v>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
@@ -4660,15 +4178,11 @@
       <c r="D134" t="n">
         <v>18</v>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>+28a(18)</t>
-        </is>
+      <c r="E134" t="n">
+        <v>14</v>
+      </c>
+      <c r="F134" t="n">
+        <v>28</v>
       </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr">
@@ -4694,15 +4208,11 @@
       <c r="D135" t="n">
         <v>12</v>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>9</v>
       </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr">
@@ -4728,15 +4238,11 @@
       <c r="D136" t="n">
         <v>11</v>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E136" t="n">
+        <v>7</v>
+      </c>
+      <c r="F136" t="n">
+        <v>4</v>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
@@ -4758,2314 +4264,14 @@
       <c r="D137" t="n">
         <v>18</v>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>+33a(+18)</t>
-        </is>
+      <c r="E137" t="n">
+        <v>9</v>
+      </c>
+      <c r="F137" t="n">
+        <v>33</v>
       </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr">
-        <is>
-          <t>Azazel's Power / Zafina receives recoverable health damage / Gains Power Crush frames during Heat / 8 chip damage on block</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>SCR.2,1</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C138" t="n">
-        <v>42</v>
-      </c>
-      <c r="D138" t="n">
-        <v>21</v>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>+30d(+20)</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>Heat Engager / Heat Dash +5 +36a(+26) / Azazel's Power / Zafina receives recoverable damage / 10 chip damage on block</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>SCR.2,2</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C139" t="n">
-        <v>34</v>
-      </c>
-      <c r="D139" t="n">
-        <v>22</v>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>+8c</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>+8d</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>SCR.3</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C140" t="n">
-        <v>15</v>
-      </c>
-      <c r="D140" t="n">
-        <v>13</v>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>SCR.3,3</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>M,H</t>
-        </is>
-      </c>
-      <c r="C141" t="n">
-        <v>35</v>
-      </c>
-      <c r="D141" t="n">
-        <v>16</v>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>+25a(+15)</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>Balcony Break</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>SCR.3+4</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C142" t="n">
-        <v>30</v>
-      </c>
-      <c r="D142" t="n">
-        <v>18</v>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>Balcony Break</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>SCR.4</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C143" t="n">
-        <v>20</v>
-      </c>
-      <c r="D143" t="n">
-        <v>15</v>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>+58a(+42)</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr"/>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>Tornado</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>SCR.b+1+2</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C144" t="n">
-        <v>16</v>
-      </c>
-      <c r="D144" t="n">
-        <v>16</v>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>+12d</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>Evasive (can go below some mids)</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>SCR.d+3</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C145" t="n">
-        <v>10</v>
-      </c>
-      <c r="D145" t="n">
-        <v>18</v>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>+9c</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>SCR.d+3,3</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>LH</t>
-        </is>
-      </c>
-      <c r="C146" t="n">
-        <v>38</v>
-      </c>
-      <c r="D146" t="n">
-        <v>24</v>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>+77a(+61)</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>Can hold B to exit SCR (becomes -1 / Launches into Tornado / Does not apply Tornado mid-combo</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>SCR.d+3+4</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr"/>
-      <c r="C147" t="n">
-        <v>0</v>
-      </c>
-      <c r="D147" t="inlineStr"/>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>SCR.d+4</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C148" t="n">
-        <v>20</v>
-      </c>
-      <c r="D148" t="n">
-        <v>24</v>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>-4d</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr"/>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>Can hold D to transition to MNT (remains -25/-4d)</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>SCR.db</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr"/>
-      <c r="C149" t="n">
-        <v>0</v>
-      </c>
-      <c r="D149" t="n">
-        <v>19</v>
-      </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-      <c r="H149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>SCR.df+3</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C150" t="n">
-        <v>10</v>
-      </c>
-      <c r="D150" t="n">
-        <v>28</v>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>-23</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>-10c</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr"/>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>Homing</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>SCR.df+3,3</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>L,L</t>
-        </is>
-      </c>
-      <c r="C151" t="n">
-        <v>20</v>
-      </c>
-      <c r="D151" t="n">
-        <v>29</v>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>-23</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>+54a(+38)</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>Homing / Launches into Tornado / Does not apply Tornado mid-combo</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>SCR.df+4</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C152" t="n">
-        <v>17</v>
-      </c>
-      <c r="D152" t="n">
-        <v>19</v>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>+7c</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>+37a</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>SS.1+2</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C153" t="n">
-        <v>22</v>
-      </c>
-      <c r="D153" t="n">
-        <v>17</v>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>-2c</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>+8c</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>+28d</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>TRT.1</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C154" t="n">
-        <v>13</v>
-      </c>
-      <c r="D154" t="n">
-        <v>18</v>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>+15d</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>TRT.1+2</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C155" t="n">
-        <v>27</v>
-      </c>
-      <c r="D155" t="n">
-        <v>19</v>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>+14a</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>Balcony Break</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>TRT.2</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C156" t="n">
-        <v>24</v>
-      </c>
-      <c r="D156" t="n">
-        <v>34</v>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>+40a(+30)</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr"/>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>Tornado</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>TRT.3</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C157" t="n">
-        <v>16</v>
-      </c>
-      <c r="D157" t="n">
-        <v>14</v>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>+15d</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr"/>
-      <c r="H157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>TRT.4</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C158" t="n">
-        <v>10</v>
-      </c>
-      <c r="D158" t="n">
-        <v>26</v>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>-22</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>-4b</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>-4c</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>Can hold D to transition to TRT instead of MNT</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>TRT.4,3</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C159" t="n">
-        <v>20</v>
-      </c>
-      <c r="D159" t="n">
-        <v>28</v>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>+18a</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>TRT.d+1+2</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C160" t="n">
-        <v>20</v>
-      </c>
-      <c r="D160" t="n">
-        <v>25</v>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>-21</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>+10d</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr"/>
-      <c r="H160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>TRT.db</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr"/>
-      <c r="C161" t="n">
-        <v>0</v>
-      </c>
-      <c r="D161" t="inlineStr"/>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>TRT.df+1</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C162" t="n">
-        <v>30</v>
-      </c>
-      <c r="D162" t="n">
-        <v>19</v>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>+30a(+15)</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr"/>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>Heat Engager / Heat Dash +5 +35d / Azazel's Power / Zafina receives recoverable health damage / 12 chip damage on block / Gains Power Crush frames during heat</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>uf+1</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C163" t="n">
-        <v>19</v>
-      </c>
-      <c r="D163" t="n">
-        <v>19</v>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr"/>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>Alternate inputs: / ub+1 / u+1</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>uf+1+2</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="C164" t="n">
-        <v>40</v>
-      </c>
-      <c r="D164" t="n">
-        <v>12</v>
-      </c>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>Throw break 1+2</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>uf+3</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C165" t="n">
-        <v>25</v>
-      </c>
-      <c r="D165" t="n">
-        <v>22</v>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>+17d</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>Alternate inputs: / ub+3 / u+3</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>uf+4</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C166" t="n">
-        <v>18</v>
-      </c>
-      <c r="D166" t="n">
-        <v>17</v>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>+29a(19)</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>Alternate inputs: / ub+4 / u+4</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>wr4</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C167" t="n">
-        <v>21</v>
-      </c>
-      <c r="D167" t="n">
-        <v>14</v>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>-52</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>+?</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>Hold D to transition to TRT (becomes -7 on hit) // On block, transitions to BT TRT (usually a disadvantageous position)</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>ws1</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C168" t="n">
-        <v>9</v>
-      </c>
-      <c r="D168" t="n">
-        <v>15</v>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr"/>
-      <c r="H168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>ws1,2</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>MM</t>
-        </is>
-      </c>
-      <c r="C169" t="n">
-        <v>27</v>
-      </c>
-      <c r="D169" t="n">
-        <v>20</v>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>+36a(26)</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr"/>
-      <c r="H169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>ws2</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C170" t="n">
-        <v>20</v>
-      </c>
-      <c r="D170" t="n">
-        <v>18</v>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>+28a(18)</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>Tornado / Can transition to MNT by holding D (becomes -40/+2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>ws3</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C171" t="n">
-        <v>20</v>
-      </c>
-      <c r="D171" t="n">
-        <v>12</v>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr"/>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>Cancel SCR transition by holding B (becomes -8/+1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>ws4</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C172" t="n">
-        <v>14</v>
-      </c>
-      <c r="D172" t="n">
-        <v>11</v>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>SCR.df+1</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C173" t="n">
-        <v>30</v>
-      </c>
-      <c r="D173" t="n">
-        <v>18</v>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>+33a(+18)</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>Azazel's Power / Zafina receives recoverable health damage / Gains Power Crush frames during Heat / 8 chip damage on block</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>SCR.2,1</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C174" t="n">
-        <v>42</v>
-      </c>
-      <c r="D174" t="n">
-        <v>21</v>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>+30d(+20)</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr"/>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>Heat Engager / Heat Dash +5 +36a(+26) / Azazel's Power / Zafina receives recoverable damage / 10 chip damage on block</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>SCR.2,2</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C175" t="n">
-        <v>34</v>
-      </c>
-      <c r="D175" t="n">
-        <v>22</v>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>+8c</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>+8d</t>
-        </is>
-      </c>
-      <c r="H175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>SCR.3</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C176" t="n">
-        <v>15</v>
-      </c>
-      <c r="D176" t="n">
-        <v>13</v>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr"/>
-      <c r="H176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>SCR.3,3</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>M,H</t>
-        </is>
-      </c>
-      <c r="C177" t="n">
-        <v>35</v>
-      </c>
-      <c r="D177" t="n">
-        <v>16</v>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>+25a(+15)</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr"/>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Balcony Break</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>SCR.3+4</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C178" t="n">
-        <v>30</v>
-      </c>
-      <c r="D178" t="n">
-        <v>18</v>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr"/>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>Balcony Break</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>SCR.4</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C179" t="n">
-        <v>20</v>
-      </c>
-      <c r="D179" t="n">
-        <v>15</v>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>+58a(+42)</t>
-        </is>
-      </c>
-      <c r="G179" t="inlineStr"/>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Tornado</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>SCR.b+1+2</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C180" t="n">
-        <v>16</v>
-      </c>
-      <c r="D180" t="n">
-        <v>16</v>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>+12d</t>
-        </is>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Evasive (can go below some mids)</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>SCR.d+3</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C181" t="n">
-        <v>10</v>
-      </c>
-      <c r="D181" t="n">
-        <v>18</v>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>+9c</t>
-        </is>
-      </c>
-      <c r="H181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>SCR.d+3,3</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>LH</t>
-        </is>
-      </c>
-      <c r="C182" t="n">
-        <v>38</v>
-      </c>
-      <c r="D182" t="n">
-        <v>24</v>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>+77a(+61)</t>
-        </is>
-      </c>
-      <c r="G182" t="inlineStr"/>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Can hold B to exit SCR (becomes -1 / Launches into Tornado / Does not apply Tornado mid-combo</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>SCR.d+3+4</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr"/>
-      <c r="C183" t="n">
-        <v>0</v>
-      </c>
-      <c r="D183" t="inlineStr"/>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-      <c r="H183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>SCR.d+4</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C184" t="n">
-        <v>20</v>
-      </c>
-      <c r="D184" t="n">
-        <v>24</v>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>-4d</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr"/>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>Can hold D to transition to MNT (remains -25/-4d)</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>SCR.db</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr"/>
-      <c r="C185" t="n">
-        <v>0</v>
-      </c>
-      <c r="D185" t="n">
-        <v>19</v>
-      </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>SCR.df+3</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C186" t="n">
-        <v>10</v>
-      </c>
-      <c r="D186" t="n">
-        <v>28</v>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>-23</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>-10c</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>Homing</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>SCR.df+3,3</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>L,L</t>
-        </is>
-      </c>
-      <c r="C187" t="n">
-        <v>20</v>
-      </c>
-      <c r="D187" t="n">
-        <v>29</v>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>-23</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>+54a(+38)</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr"/>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>Homing / Launches into Tornado / Does not apply Tornado mid-combo</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>SCR.df+4</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C188" t="n">
-        <v>17</v>
-      </c>
-      <c r="D188" t="n">
-        <v>19</v>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>+7c</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>+37a</t>
-        </is>
-      </c>
-      <c r="H188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>SS.1+2</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C189" t="n">
-        <v>22</v>
-      </c>
-      <c r="D189" t="n">
-        <v>17</v>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>-2c</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>+8c</t>
-        </is>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>+28d</t>
-        </is>
-      </c>
-      <c r="H189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>TRT.1</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C190" t="n">
-        <v>13</v>
-      </c>
-      <c r="D190" t="n">
-        <v>18</v>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>+15d</t>
-        </is>
-      </c>
-      <c r="H190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>TRT.1+2</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C191" t="n">
-        <v>27</v>
-      </c>
-      <c r="D191" t="n">
-        <v>19</v>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>+14a</t>
-        </is>
-      </c>
-      <c r="G191" t="inlineStr"/>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>Balcony Break</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>TRT.2</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C192" t="n">
-        <v>24</v>
-      </c>
-      <c r="D192" t="n">
-        <v>34</v>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>+40a(+30)</t>
-        </is>
-      </c>
-      <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>Tornado</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>TRT.3</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C193" t="n">
-        <v>16</v>
-      </c>
-      <c r="D193" t="n">
-        <v>14</v>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>+15d</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>TRT.4</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C194" t="n">
-        <v>10</v>
-      </c>
-      <c r="D194" t="n">
-        <v>26</v>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>-22</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>-4b</t>
-        </is>
-      </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>-4c</t>
-        </is>
-      </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>Can hold D to transition to TRT instead of MNT</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>TRT.4,3</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C195" t="n">
-        <v>20</v>
-      </c>
-      <c r="D195" t="n">
-        <v>28</v>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>+18a</t>
-        </is>
-      </c>
-      <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>TRT.d+1+2</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C196" t="n">
-        <v>20</v>
-      </c>
-      <c r="D196" t="n">
-        <v>25</v>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>-21</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>+10d</t>
-        </is>
-      </c>
-      <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>TRT.db</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr"/>
-      <c r="C197" t="n">
-        <v>0</v>
-      </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>TRT.df+1</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C198" t="n">
-        <v>30</v>
-      </c>
-      <c r="D198" t="n">
-        <v>19</v>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>+30a(+15)</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>Heat Engager / Heat Dash +5 +35d / Azazel's Power / Zafina receives recoverable health damage / 12 chip damage on block / Gains Power Crush frames during heat</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>uf+1</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C199" t="n">
-        <v>19</v>
-      </c>
-      <c r="D199" t="n">
-        <v>19</v>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
-      </c>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>Alternate inputs: / ub+1 / u+1</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>uf+1+2</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="C200" t="n">
-        <v>40</v>
-      </c>
-      <c r="D200" t="n">
-        <v>12</v>
-      </c>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G200" t="inlineStr"/>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>Throw break 1+2</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>uf+3</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C201" t="n">
-        <v>25</v>
-      </c>
-      <c r="D201" t="n">
-        <v>22</v>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>+17d</t>
-        </is>
-      </c>
-      <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>Alternate inputs: / ub+3 / u+3</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>uf+4</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C202" t="n">
-        <v>18</v>
-      </c>
-      <c r="D202" t="n">
-        <v>17</v>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>+29a(19)</t>
-        </is>
-      </c>
-      <c r="G202" t="inlineStr"/>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>Alternate inputs: / ub+4 / u+4</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>wr4</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C203" t="n">
-        <v>21</v>
-      </c>
-      <c r="D203" t="n">
-        <v>14</v>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>-52</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>+?</t>
-        </is>
-      </c>
-      <c r="G203" t="inlineStr"/>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>Hold D to transition to TRT (becomes -7 on hit) // On block, transitions to BT TRT (usually a disadvantageous position)</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>ws1</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C204" t="n">
-        <v>9</v>
-      </c>
-      <c r="D204" t="n">
-        <v>15</v>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="G204" t="inlineStr"/>
-      <c r="H204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>ws1,2</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>MM</t>
-        </is>
-      </c>
-      <c r="C205" t="n">
-        <v>27</v>
-      </c>
-      <c r="D205" t="n">
-        <v>20</v>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>+36a(26)</t>
-        </is>
-      </c>
-      <c r="G205" t="inlineStr"/>
-      <c r="H205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>ws2</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C206" t="n">
-        <v>20</v>
-      </c>
-      <c r="D206" t="n">
-        <v>18</v>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>+28a(18)</t>
-        </is>
-      </c>
-      <c r="G206" t="inlineStr"/>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>Tornado / Can transition to MNT by holding D (becomes -40/+2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>ws3</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C207" t="n">
-        <v>20</v>
-      </c>
-      <c r="D207" t="n">
-        <v>12</v>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>+9</t>
-        </is>
-      </c>
-      <c r="G207" t="inlineStr"/>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>Cancel SCR transition by holding B (becomes -8/+1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>ws4</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C208" t="n">
-        <v>14</v>
-      </c>
-      <c r="D208" t="n">
-        <v>11</v>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
-      </c>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>SCR.df+1</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C209" t="n">
-        <v>30</v>
-      </c>
-      <c r="D209" t="n">
-        <v>18</v>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>+33a(+18)</t>
-        </is>
-      </c>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr">
         <is>
           <t>Azazel's Power / Zafina receives recoverable health damage / Gains Power Crush frames during Heat / 8 chip damage on block</t>
         </is>

--- a/data/zafina-tekken-8-frame-data.xlsx
+++ b/data/zafina-tekken-8-frame-data.xlsx
@@ -493,7 +493,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>8</v>
@@ -519,7 +519,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
@@ -549,7 +549,7 @@
         <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F4" t="n">
         <v>8</v>
@@ -625,7 +625,7 @@
         <v>24</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -655,7 +655,7 @@
         <v>30</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F8" t="n">
         <v>19</v>
@@ -713,7 +713,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F10" t="n">
         <v>7</v>
@@ -739,7 +739,7 @@
         <v>19</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F11" t="n">
         <v>2</v>
@@ -765,7 +765,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F12" t="n">
         <v>-1</v>
@@ -791,7 +791,7 @@
         <v>23</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F13" t="n">
         <v>2</v>
@@ -817,7 +817,7 @@
         <v>32</v>
       </c>
       <c r="E14" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F14" t="n">
         <v>4</v>
@@ -847,7 +847,7 @@
         <v>19</v>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F15" t="n">
         <v>2</v>
@@ -877,7 +877,7 @@
         <v>25</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F16" t="n">
         <v>19</v>
@@ -901,7 +901,7 @@
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>2</v>
@@ -1005,7 +1005,7 @@
         <v>14</v>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F21" t="n">
         <v>-1</v>
@@ -1035,7 +1035,7 @@
         <v>18</v>
       </c>
       <c r="E22" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
@@ -1087,7 +1087,7 @@
         <v>22</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F24" t="n">
         <v>12</v>
@@ -1141,7 +1141,7 @@
         <v>24</v>
       </c>
       <c r="E26" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F26" t="n">
         <v>12</v>
@@ -1167,7 +1167,7 @@
         <v>22</v>
       </c>
       <c r="E27" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F27" t="n">
         <v>4</v>
@@ -1193,7 +1193,7 @@
         <v>20</v>
       </c>
       <c r="E28" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F28" t="n">
         <v>9</v>
@@ -1249,7 +1249,7 @@
         <v>12</v>
       </c>
       <c r="E30" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F30" t="n">
         <v>-8</v>
@@ -1279,7 +1279,7 @@
         <v>17</v>
       </c>
       <c r="E31" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F31" t="n">
         <v>19</v>
@@ -1329,7 +1329,7 @@
         <v>19</v>
       </c>
       <c r="E33" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F33" t="n">
         <v>-3</v>
@@ -1359,7 +1359,7 @@
         <v>26</v>
       </c>
       <c r="E34" t="n">
-        <v>22</v>
+        <v>-22</v>
       </c>
       <c r="F34" t="n">
         <v>-4</v>
@@ -1393,7 +1393,7 @@
         <v>28</v>
       </c>
       <c r="E35" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F35" t="n">
         <v>18</v>
@@ -1419,7 +1419,7 @@
         <v>22</v>
       </c>
       <c r="E36" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F36" t="n">
         <v>2</v>
@@ -1469,7 +1469,7 @@
         <v>17</v>
       </c>
       <c r="E38" t="n">
-        <v>19</v>
+        <v>-19</v>
       </c>
       <c r="F38" t="n">
         <v>-3</v>
@@ -1499,7 +1499,7 @@
         <v>19</v>
       </c>
       <c r="E39" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F39" t="n">
         <v>36</v>
@@ -1529,7 +1529,7 @@
         <v>28</v>
       </c>
       <c r="E40" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F40" t="n">
         <v>15</v>
@@ -1555,7 +1555,7 @@
         <v>33</v>
       </c>
       <c r="E41" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F41" t="n">
         <v>5</v>
@@ -1589,7 +1589,7 @@
         <v>13</v>
       </c>
       <c r="E42" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F42" t="n">
         <v>3</v>
@@ -1619,7 +1619,7 @@
         <v>18</v>
       </c>
       <c r="E43" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F43" t="n">
         <v>3</v>
@@ -1645,7 +1645,7 @@
         <v>21</v>
       </c>
       <c r="E44" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F44" t="n">
         <v>-3</v>
@@ -1679,7 +1679,7 @@
         <v>29</v>
       </c>
       <c r="E45" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F45" t="n">
         <v>68</v>
@@ -1709,7 +1709,7 @@
         <v>13</v>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F46" t="n">
         <v>7</v>
@@ -1735,7 +1735,7 @@
         <v>15</v>
       </c>
       <c r="E47" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F47" t="n">
         <v>3</v>
@@ -1761,7 +1761,7 @@
         <v>25</v>
       </c>
       <c r="E48" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F48" t="n">
         <v>23</v>
@@ -1791,7 +1791,7 @@
         <v>19</v>
       </c>
       <c r="E49" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F49" t="n">
         <v>12</v>
@@ -1817,7 +1817,7 @@
         <v>16</v>
       </c>
       <c r="E50" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F50" t="n">
         <v>32</v>
@@ -1843,7 +1843,7 @@
         <v>15</v>
       </c>
       <c r="E51" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F51" t="n">
         <v>4</v>
@@ -1869,7 +1869,7 @@
         <v>23</v>
       </c>
       <c r="E52" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F52" t="n">
         <v>22</v>
@@ -1899,7 +1899,7 @@
         <v>25</v>
       </c>
       <c r="E53" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F53" t="n">
         <v>1</v>
@@ -1925,7 +1925,7 @@
         <v>14</v>
       </c>
       <c r="E54" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F54" t="n">
         <v>3</v>
@@ -1951,7 +1951,7 @@
         <v>31</v>
       </c>
       <c r="E55" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F55" t="n">
         <v>3</v>
@@ -1981,7 +1981,7 @@
         <v>27</v>
       </c>
       <c r="E56" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F56" t="n">
         <v>24</v>
@@ -2011,7 +2011,7 @@
         <v>19</v>
       </c>
       <c r="E57" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F57" t="n">
         <v>5</v>
@@ -2041,7 +2041,7 @@
         <v>19</v>
       </c>
       <c r="E58" t="n">
-        <v>18</v>
+        <v>-18</v>
       </c>
       <c r="F58" t="n">
         <v>-9</v>
@@ -2101,7 +2101,7 @@
         <v>28</v>
       </c>
       <c r="E60" t="n">
-        <v>18</v>
+        <v>-18</v>
       </c>
       <c r="F60" t="n">
         <v>18</v>
@@ -2127,7 +2127,7 @@
         <v>21</v>
       </c>
       <c r="E61" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F61" t="n">
         <v>68</v>
@@ -2157,7 +2157,7 @@
         <v>14</v>
       </c>
       <c r="E62" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F62" t="n">
         <v>22</v>
@@ -2183,7 +2183,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F63" t="n">
         <v>6</v>
@@ -2209,7 +2209,7 @@
         <v>11</v>
       </c>
       <c r="E64" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F64" t="n">
         <v>5</v>
@@ -2235,7 +2235,7 @@
         <v>16</v>
       </c>
       <c r="E65" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F65" t="n">
         <v>-6</v>
@@ -2261,7 +2261,7 @@
         <v>12</v>
       </c>
       <c r="E66" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F66" t="n">
         <v>-4</v>
@@ -2287,7 +2287,7 @@
         <v>23</v>
       </c>
       <c r="E67" t="n">
-        <v>26</v>
+        <v>-26</v>
       </c>
       <c r="F67" t="n">
         <v>14</v>
@@ -2317,7 +2317,7 @@
         <v>15</v>
       </c>
       <c r="E68" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
         <v>21</v>
@@ -2347,7 +2347,7 @@
         <v>20</v>
       </c>
       <c r="E69" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F69" t="n">
         <v>9</v>
@@ -2381,7 +2381,7 @@
         <v>18</v>
       </c>
       <c r="E70" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F70" t="n">
         <v>5</v>
@@ -2411,7 +2411,7 @@
         <v>21</v>
       </c>
       <c r="E71" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F71" t="n">
         <v>15</v>
@@ -2441,7 +2441,7 @@
         <v>17</v>
       </c>
       <c r="E72" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F72" t="n">
         <v>18</v>
@@ -2471,7 +2471,7 @@
         <v>23</v>
       </c>
       <c r="E73" t="n">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="F73" t="n">
         <v>32</v>
@@ -2501,7 +2501,7 @@
         <v>23</v>
       </c>
       <c r="E74" t="n">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="F74" t="n">
         <v>19</v>
@@ -2531,7 +2531,7 @@
         <v>12</v>
       </c>
       <c r="E75" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F75" t="n">
         <v>70</v>
@@ -2587,7 +2587,7 @@
         <v>13</v>
       </c>
       <c r="E77" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F77" t="n">
         <v>5</v>
@@ -2613,7 +2613,7 @@
         <v>20</v>
       </c>
       <c r="E78" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F78" t="n">
         <v>18</v>
@@ -2669,7 +2669,7 @@
         <v>13</v>
       </c>
       <c r="E80" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F80" t="n">
         <v>-3</v>
@@ -2699,7 +2699,7 @@
         <v>18</v>
       </c>
       <c r="E81" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F81" t="n">
         <v>-3</v>
@@ -2725,7 +2725,7 @@
         <v>27</v>
       </c>
       <c r="E82" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F82" t="n">
         <v>13</v>
@@ -2767,7 +2767,7 @@
         <v>15</v>
       </c>
       <c r="E84" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F84" t="n">
         <v>-1</v>
@@ -2793,7 +2793,7 @@
         <v>24</v>
       </c>
       <c r="E85" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F85" t="n">
         <v>22</v>
@@ -2819,7 +2819,7 @@
         <v>17</v>
       </c>
       <c r="E86" t="n">
-        <v>19</v>
+        <v>-19</v>
       </c>
       <c r="F86" t="n">
         <v>-3</v>
@@ -2849,7 +2849,7 @@
         <v>27</v>
       </c>
       <c r="E87" t="n">
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="F87" t="n">
         <v>32</v>
@@ -2879,7 +2879,7 @@
         <v>15</v>
       </c>
       <c r="E88" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -2905,7 +2905,7 @@
         <v>27</v>
       </c>
       <c r="E89" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F89" t="n">
         <v>15</v>
@@ -2939,7 +2939,7 @@
         <v>20</v>
       </c>
       <c r="E90" t="n">
-        <v>22</v>
+        <v>-22</v>
       </c>
       <c r="F90" t="n">
         <v>4</v>
@@ -2973,7 +2973,7 @@
         <v>24</v>
       </c>
       <c r="E91" t="n">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="F91" t="n">
         <v>7</v>
@@ -3003,7 +3003,7 @@
         <v>19</v>
       </c>
       <c r="E92" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F92" t="n">
         <v>32</v>
@@ -3029,7 +3029,7 @@
         <v>15</v>
       </c>
       <c r="E93" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F93" t="n">
         <v>19</v>
@@ -3055,7 +3055,7 @@
         <v>17</v>
       </c>
       <c r="E94" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F94" t="n">
         <v>13</v>
@@ -3085,7 +3085,7 @@
         <v>26</v>
       </c>
       <c r="E95" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F95" t="n">
         <v>11</v>
@@ -3111,7 +3111,7 @@
         <v>20</v>
       </c>
       <c r="E96" t="n">
-        <v>-15</v>
+        <v>15</v>
       </c>
       <c r="F96" t="n">
         <v>70</v>
@@ -3167,7 +3167,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F98" t="n">
         <v>9</v>
@@ -3193,7 +3193,7 @@
         <v>17</v>
       </c>
       <c r="E99" t="n">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="F99" t="n">
         <v>17</v>
@@ -3223,7 +3223,7 @@
         <v>22</v>
       </c>
       <c r="E100" t="n">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="F100" t="n">
         <v>-6</v>
@@ -3253,7 +3253,7 @@
         <v>14</v>
       </c>
       <c r="E101" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F101" t="n">
         <v>7</v>
@@ -3279,7 +3279,7 @@
         <v>21</v>
       </c>
       <c r="E102" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F102" t="n">
         <v>30</v>
@@ -3309,7 +3309,7 @@
         <v>22</v>
       </c>
       <c r="E103" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F103" t="n">
         <v>8</v>
@@ -3339,7 +3339,7 @@
         <v>13</v>
       </c>
       <c r="E104" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F104" t="n">
         <v>5</v>
@@ -3395,7 +3395,7 @@
         <v>18</v>
       </c>
       <c r="E106" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F106" t="n">
         <v>8</v>
@@ -3425,7 +3425,7 @@
         <v>15</v>
       </c>
       <c r="E107" t="n">
-        <v>18</v>
+        <v>-18</v>
       </c>
       <c r="F107" t="n">
         <v>58</v>
@@ -3455,7 +3455,7 @@
         <v>16</v>
       </c>
       <c r="E108" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F108" t="n">
         <v>3</v>
@@ -3489,7 +3489,7 @@
         <v>18</v>
       </c>
       <c r="E109" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F109" t="n">
         <v>-3</v>
@@ -3519,7 +3519,7 @@
         <v>24</v>
       </c>
       <c r="E110" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F110" t="n">
         <v>77</v>
@@ -3565,7 +3565,7 @@
         <v>24</v>
       </c>
       <c r="E112" t="n">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="F112" t="n">
         <v>-4</v>
@@ -3613,7 +3613,7 @@
         <v>28</v>
       </c>
       <c r="E114" t="n">
-        <v>23</v>
+        <v>-23</v>
       </c>
       <c r="F114" t="n">
         <v>-10</v>
@@ -3643,7 +3643,7 @@
         <v>29</v>
       </c>
       <c r="E115" t="n">
-        <v>23</v>
+        <v>-23</v>
       </c>
       <c r="F115" t="n">
         <v>54</v>
@@ -3673,7 +3673,7 @@
         <v>19</v>
       </c>
       <c r="E116" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F116" t="n">
         <v>7</v>
@@ -3703,7 +3703,7 @@
         <v>17</v>
       </c>
       <c r="E117" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F117" t="n">
         <v>8</v>
@@ -3733,7 +3733,7 @@
         <v>18</v>
       </c>
       <c r="E118" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F118" t="n">
         <v>5</v>
@@ -3763,7 +3763,7 @@
         <v>19</v>
       </c>
       <c r="E119" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F119" t="n">
         <v>14</v>
@@ -3793,7 +3793,7 @@
         <v>34</v>
       </c>
       <c r="E120" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F120" t="n">
         <v>40</v>
@@ -3823,7 +3823,7 @@
         <v>14</v>
       </c>
       <c r="E121" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F121" t="n">
         <v>15</v>
@@ -3849,7 +3849,7 @@
         <v>26</v>
       </c>
       <c r="E122" t="n">
-        <v>22</v>
+        <v>-22</v>
       </c>
       <c r="F122" t="n">
         <v>-4</v>
@@ -3883,7 +3883,7 @@
         <v>28</v>
       </c>
       <c r="E123" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F123" t="n">
         <v>18</v>
@@ -3909,7 +3909,7 @@
         <v>25</v>
       </c>
       <c r="E124" t="n">
-        <v>21</v>
+        <v>-21</v>
       </c>
       <c r="F124" t="n">
         <v>10</v>
@@ -3951,7 +3951,7 @@
         <v>19</v>
       </c>
       <c r="E126" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F126" t="n">
         <v>30</v>
@@ -3981,7 +3981,7 @@
         <v>19</v>
       </c>
       <c r="E127" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F127" t="n">
         <v>9</v>
@@ -4039,7 +4039,7 @@
         <v>22</v>
       </c>
       <c r="E129" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F129" t="n">
         <v>17</v>
@@ -4069,7 +4069,7 @@
         <v>17</v>
       </c>
       <c r="E130" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F130" t="n">
         <v>29</v>
@@ -4099,7 +4099,7 @@
         <v>14</v>
       </c>
       <c r="E131" t="n">
-        <v>52</v>
+        <v>-52</v>
       </c>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
@@ -4127,7 +4127,7 @@
         <v>15</v>
       </c>
       <c r="E132" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F132" t="n">
         <v>1</v>
@@ -4153,7 +4153,7 @@
         <v>20</v>
       </c>
       <c r="E133" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F133" t="n">
         <v>36</v>
@@ -4179,7 +4179,7 @@
         <v>18</v>
       </c>
       <c r="E134" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F134" t="n">
         <v>28</v>
@@ -4239,7 +4239,7 @@
         <v>11</v>
       </c>
       <c r="E136" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F136" t="n">
         <v>4</v>
@@ -4265,7 +4265,7 @@
         <v>18</v>
       </c>
       <c r="E137" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F137" t="n">
         <v>33</v>
